--- a/data/trans_orig/P14C22-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C22-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F739869E-3076-44D3-B525-1FE1D12414FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE718DC9-0AF5-4884-8C5B-05701C444893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F63ECECF-1522-4BB7-BC12-23E036B04529}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3022E577-AE6F-4956-9C21-C4BE309EC317}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="87">
   <si>
     <t>Población según el tiempo de diagnóstico del accidente cerebrovascular en 2015 (Tasa respuesta: 0,58%)</t>
   </si>
@@ -116,7 +116,7 @@
     <t>78,07%</t>
   </si>
   <si>
-    <t>32,33%</t>
+    <t>19,03%</t>
   </si>
   <si>
     <t>47,89%</t>
@@ -125,19 +125,19 @@
     <t>69,13%</t>
   </si>
   <si>
-    <t>25,89%</t>
+    <t>25,88%</t>
   </si>
   <si>
     <t>21,93%</t>
   </si>
   <si>
-    <t>67,67%</t>
+    <t>80,97%</t>
   </si>
   <si>
     <t>15,43%</t>
   </si>
   <si>
-    <t>60,0%</t>
+    <t>59,73%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -149,7 +149,7 @@
     <t>15,44%</t>
   </si>
   <si>
-    <t>59,87%</t>
+    <t>62,98%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -170,94 +170,97 @@
     <t>42,05%</t>
   </si>
   <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
   </si>
   <si>
     <t>93,51%</t>
   </si>
   <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
     <t>71,74%</t>
   </si>
   <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
   </si>
   <si>
     <t>41,85%</t>
   </si>
   <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -266,31 +269,31 @@
     <t>20,91%</t>
   </si>
   <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>22,73%</t>
+    <t>22,29%</t>
   </si>
   <si>
     <t>10,4%</t>
   </si>
   <si>
-    <t>33,92%</t>
+    <t>28,98%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5978AF9-BD4B-4974-8F02-33494A56C6A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0B3F6F-BBF7-4A23-8C71-5A2B45F6557C}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2055,13 +2058,13 @@
         <v>29821</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2076,13 +2079,13 @@
         <v>8690</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2097,7 +2100,7 @@
         <v>19</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -2106,13 +2109,13 @@
         <v>8690</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2127,13 +2130,13 @@
         <v>891</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2142,13 +2145,13 @@
         <v>2164</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -2157,13 +2160,13 @@
         <v>3055</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2219,7 +2222,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C22-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C22-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE718DC9-0AF5-4884-8C5B-05701C444893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8812486-D878-4A39-9C36-E11BDD4527A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3022E577-AE6F-4956-9C21-C4BE309EC317}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E37CC4E-F638-4CD3-8935-7B6657280169}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="87">
   <si>
-    <t>Población según el tiempo de diagnóstico del accidente cerebrovascular en 2015 (Tasa respuesta: 0,58%)</t>
+    <t>Población según el tiempo de diagnóstico del accidente cerebrovascular en 2016 (Tasa respuesta: 0,58%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -116,7 +116,7 @@
     <t>78,07%</t>
   </si>
   <si>
-    <t>19,03%</t>
+    <t>18,68%</t>
   </si>
   <si>
     <t>47,89%</t>
@@ -125,19 +125,19 @@
     <t>69,13%</t>
   </si>
   <si>
-    <t>25,88%</t>
+    <t>25,89%</t>
   </si>
   <si>
     <t>21,93%</t>
   </si>
   <si>
-    <t>80,97%</t>
+    <t>81,32%</t>
   </si>
   <si>
     <t>15,43%</t>
   </si>
   <si>
-    <t>59,73%</t>
+    <t>60,0%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -149,7 +149,7 @@
     <t>15,44%</t>
   </si>
   <si>
-    <t>62,98%</t>
+    <t>60,04%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -170,34 +170,34 @@
     <t>42,05%</t>
   </si>
   <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
   </si>
   <si>
     <t>93,51%</t>
   </si>
   <si>
-    <t>71,09%</t>
+    <t>70,85%</t>
   </si>
   <si>
     <t>73,33%</t>
   </si>
   <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
   </si>
   <si>
     <t>49,64%</t>
   </si>
   <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -206,61 +206,61 @@
     <t>19,47%</t>
   </si>
   <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>37,53%</t>
+    <t>54,63%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>28,91%</t>
+    <t>29,15%</t>
   </si>
   <si>
     <t>7,21%</t>
   </si>
   <si>
-    <t>23,3%</t>
+    <t>23,96%</t>
   </si>
   <si>
     <t>53,86%</t>
   </si>
   <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
   </si>
   <si>
     <t>89,6%</t>
   </si>
   <si>
-    <t>71,02%</t>
+    <t>66,18%</t>
   </si>
   <si>
     <t>71,74%</t>
   </si>
   <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
   </si>
   <si>
     <t>41,85%</t>
   </si>
   <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -269,31 +269,31 @@
     <t>20,91%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>22,29%</t>
+    <t>21,73%</t>
   </si>
   <si>
     <t>10,4%</t>
   </si>
   <si>
-    <t>28,98%</t>
+    <t>33,82%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -708,7 +708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0B3F6F-BBF7-4A23-8C71-5A2B45F6557C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D34384-E2C2-4FC2-ADF1-F91B6547328D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
